--- a/src/main/webapp/交易导入样式.xlsx
+++ b/src/main/webapp/交易导入样式.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>合同日期</t>
     <rPh sb="0" eb="1">
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>常州化工常润</t>
-  </si>
-  <si>
-    <t>充电宝</t>
   </si>
   <si>
     <t>统一规格</t>
@@ -671,12 +671,77 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>yckg</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <rPh sb="0" eb="1">
+      <t>pejn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <rPh sb="0" eb="1">
+      <t>uit</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <rPh sb="0" eb="1">
+      <t>iys</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+  </si>
+  <si>
+    <t>1~3</t>
+  </si>
+  <si>
+    <t>建材</t>
+    <rPh sb="0" eb="1">
+      <t>vfs</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <rPh sb="0" eb="1">
+      <t>pwym</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户门锁</t>
+  </si>
+  <si>
+    <t>窗户</t>
+  </si>
+  <si>
+    <t>2~1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -709,6 +774,24 @@
       <sz val="12"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -727,8 +810,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -739,12 +832,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1019,190 +1120,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="31.5" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" customWidth="1"/>
-    <col min="21" max="21" width="27.83203125" customWidth="1"/>
-    <col min="22" max="22" width="63.1640625" customWidth="1"/>
+    <col min="2" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="31.5" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" customWidth="1"/>
+    <col min="22" max="22" width="27.83203125" customWidth="1"/>
+    <col min="23" max="23" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="103" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="103" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43091</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43091</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43091</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>42993</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>42996</v>
+      </c>
+      <c r="R3" s="3">
+        <v>42997</v>
+      </c>
+      <c r="S3" s="3">
+        <v>42998</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4">
+        <v>2000</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B7" s="3">
+        <v>43091</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43091</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43091</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43091</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>20000</v>
+      </c>
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="P7" s="3">
+        <v>42993</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>42996</v>
+      </c>
+      <c r="R7" s="3">
+        <v>42997</v>
+      </c>
+      <c r="S7" s="3">
+        <v>42998</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>43050</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43050</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43050</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43059</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>250</v>
-      </c>
-      <c r="N3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
         <v>100</v>
       </c>
-      <c r="O3" s="3">
-        <v>42993</v>
-      </c>
-      <c r="P3" s="3">
-        <v>42996</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>42997</v>
-      </c>
-      <c r="R3" s="3">
-        <v>42998</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
+      <c r="O9">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>